--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H2">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I2">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J2">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.620372829702846</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N2">
-        <v>0.620372829702846</v>
+        <v>0.120509</v>
       </c>
       <c r="O2">
-        <v>0.01975791774669026</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="P2">
-        <v>0.01975791774669026</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="Q2">
-        <v>13.78907716607681</v>
+        <v>1.114531731094778</v>
       </c>
       <c r="R2">
-        <v>13.78907716607681</v>
+        <v>10.030785579853</v>
       </c>
       <c r="S2">
-        <v>0.001622365759008577</v>
+        <v>0.0001225540360667471</v>
       </c>
       <c r="T2">
-        <v>0.001622365759008577</v>
+        <v>0.0001225540360667472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H3">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I3">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J3">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.476054397053581</v>
+        <v>0.6245546666666667</v>
       </c>
       <c r="N3">
-        <v>9.476054397053581</v>
+        <v>1.873664</v>
       </c>
       <c r="O3">
-        <v>0.3017977164309849</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="P3">
-        <v>0.3017977164309849</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="Q3">
-        <v>210.6250291030659</v>
+        <v>17.32864749860978</v>
       </c>
       <c r="R3">
-        <v>210.6250291030659</v>
+        <v>155.957827487488</v>
       </c>
       <c r="S3">
-        <v>0.02478126934031951</v>
+        <v>0.001905460052219882</v>
       </c>
       <c r="T3">
-        <v>0.02478126934031951</v>
+        <v>0.001905460052219883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H4">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I4">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J4">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.9441031154377</v>
+        <v>9.510748333333334</v>
       </c>
       <c r="N4">
-        <v>16.9441031154377</v>
+        <v>28.532245</v>
       </c>
       <c r="O4">
-        <v>0.5396435491970424</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="P4">
-        <v>0.5396435491970424</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="Q4">
-        <v>376.6179532405481</v>
+        <v>263.8814728515739</v>
       </c>
       <c r="R4">
-        <v>376.6179532405481</v>
+        <v>2374.933255664165</v>
       </c>
       <c r="S4">
-        <v>0.04431130990176336</v>
+        <v>0.02901643680385088</v>
       </c>
       <c r="T4">
-        <v>0.04431130990176336</v>
+        <v>0.02901643680385089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H5">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I5">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J5">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.87944821136552</v>
+        <v>17.06910633333333</v>
       </c>
       <c r="N5">
-        <v>3.87944821136552</v>
+        <v>51.207319</v>
       </c>
       <c r="O5">
-        <v>0.1235544417691846</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="P5">
-        <v>0.1235544417691846</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="Q5">
-        <v>86.22880981738201</v>
+        <v>473.5926934070692</v>
       </c>
       <c r="R5">
-        <v>86.22880981738201</v>
+        <v>4262.334240663623</v>
       </c>
       <c r="S5">
-        <v>0.01014532494110229</v>
+        <v>0.05207630649667185</v>
       </c>
       <c r="T5">
-        <v>0.01014532494110229</v>
+        <v>0.05207630649667185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H6">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I6">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J6">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478716271291907</v>
+        <v>4.477804333333334</v>
       </c>
       <c r="N6">
-        <v>0.478716271291907</v>
+        <v>13.433413</v>
       </c>
       <c r="O6">
-        <v>0.01524637485609787</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="P6">
-        <v>0.01524637485609787</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="Q6">
-        <v>10.64046536122887</v>
+        <v>124.2393932851579</v>
       </c>
       <c r="R6">
-        <v>10.64046536122887</v>
+        <v>1118.154539566421</v>
       </c>
       <c r="S6">
-        <v>0.00125191312326857</v>
+        <v>0.01366137783320341</v>
       </c>
       <c r="T6">
-        <v>0.00125191312326857</v>
+        <v>0.01366137783320342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.0507986010757</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H7">
-        <v>89.0507986010757</v>
+        <v>83.236817</v>
       </c>
       <c r="I7">
-        <v>0.3289750669874349</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J7">
-        <v>0.3289750669874349</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.620372829702846</v>
+        <v>0.650234</v>
       </c>
       <c r="N7">
-        <v>0.620372829702846</v>
+        <v>1.950702</v>
       </c>
       <c r="O7">
-        <v>0.01975791774669026</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="P7">
-        <v>0.01975791774669026</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="Q7">
-        <v>55.24469591544757</v>
+        <v>18.04113615505933</v>
       </c>
       <c r="R7">
-        <v>55.24469591544757</v>
+        <v>162.370225395534</v>
       </c>
       <c r="S7">
-        <v>0.006499862314249656</v>
+        <v>0.001983805386016611</v>
       </c>
       <c r="T7">
-        <v>0.006499862314249656</v>
+        <v>0.001983805386016612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H8">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I8">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J8">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.476054397053581</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N8">
-        <v>9.476054397053581</v>
+        <v>0.120509</v>
       </c>
       <c r="O8">
-        <v>0.3017977164309849</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="P8">
-        <v>0.3017977164309849</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="Q8">
-        <v>843.8502116448562</v>
+        <v>3.583929532337445</v>
       </c>
       <c r="R8">
-        <v>843.8502116448562</v>
+        <v>32.255365791037</v>
       </c>
       <c r="S8">
-        <v>0.09928392397953813</v>
+        <v>0.0003940892994902202</v>
       </c>
       <c r="T8">
-        <v>0.09928392397953813</v>
+        <v>0.0003940892994902203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H9">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I9">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J9">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9441031154377</v>
+        <v>0.6245546666666667</v>
       </c>
       <c r="N9">
-        <v>16.9441031154377</v>
+        <v>1.873664</v>
       </c>
       <c r="O9">
-        <v>0.5396435491970424</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="P9">
-        <v>0.5396435491970424</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="Q9">
-        <v>1508.885914008702</v>
+        <v>55.72264099177246</v>
       </c>
       <c r="R9">
-        <v>1508.885914008702</v>
+        <v>501.5037689259521</v>
       </c>
       <c r="S9">
-        <v>0.1775292727464341</v>
+        <v>0.006127267948784274</v>
       </c>
       <c r="T9">
-        <v>0.1775292727464341</v>
+        <v>0.006127267948784276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H10">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I10">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J10">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.87944821136552</v>
+        <v>9.510748333333334</v>
       </c>
       <c r="N10">
-        <v>3.87944821136552</v>
+        <v>28.532245</v>
       </c>
       <c r="O10">
-        <v>0.1235544417691846</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="P10">
-        <v>0.1235544417691846</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="Q10">
-        <v>345.4679613536143</v>
+        <v>848.5470419585873</v>
       </c>
       <c r="R10">
-        <v>345.4679613536143</v>
+        <v>7636.923377627286</v>
       </c>
       <c r="S10">
-        <v>0.04064633075761264</v>
+        <v>0.09330632936073936</v>
       </c>
       <c r="T10">
-        <v>0.04064633075761264</v>
+        <v>0.09330632936073936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H11">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I11">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J11">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.478716271291907</v>
+        <v>17.06910633333333</v>
       </c>
       <c r="N11">
-        <v>0.478716271291907</v>
+        <v>51.207319</v>
       </c>
       <c r="O11">
-        <v>0.01524637485609787</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="P11">
-        <v>0.01524637485609787</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="Q11">
-        <v>42.63006626187353</v>
+        <v>1522.902213410819</v>
       </c>
       <c r="R11">
-        <v>42.63006626187353</v>
+        <v>13706.11992069737</v>
       </c>
       <c r="S11">
-        <v>0.005015677189600339</v>
+        <v>0.1674585008047718</v>
       </c>
       <c r="T11">
-        <v>0.005015677189600339</v>
+        <v>0.1674585008047718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.3180701893251</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H12">
-        <v>43.3180701893251</v>
+        <v>267.659393</v>
       </c>
       <c r="I12">
-        <v>0.1600273693910196</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J12">
-        <v>0.1600273693910196</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.620372829702846</v>
+        <v>4.477804333333334</v>
       </c>
       <c r="N12">
-        <v>0.620372829702846</v>
+        <v>13.433413</v>
       </c>
       <c r="O12">
-        <v>0.01975791774669026</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="P12">
-        <v>0.01975791774669026</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="Q12">
-        <v>26.87335378061811</v>
+        <v>399.5087966109234</v>
       </c>
       <c r="R12">
-        <v>26.87335378061811</v>
+        <v>3595.57916949831</v>
       </c>
       <c r="S12">
-        <v>0.003161807601646983</v>
+        <v>0.04393003276877925</v>
       </c>
       <c r="T12">
-        <v>0.003161807601646983</v>
+        <v>0.04393003276877926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.3180701893251</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H13">
-        <v>43.3180701893251</v>
+        <v>267.659393</v>
       </c>
       <c r="I13">
-        <v>0.1600273693910196</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J13">
-        <v>0.1600273693910196</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.476054397053581</v>
+        <v>0.650234</v>
       </c>
       <c r="N13">
-        <v>9.476054397053581</v>
+        <v>1.950702</v>
       </c>
       <c r="O13">
-        <v>0.3017977164309849</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="P13">
-        <v>0.3017977164309849</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="Q13">
-        <v>410.4843894894298</v>
+        <v>58.01374591598734</v>
       </c>
       <c r="R13">
-        <v>410.4843894894298</v>
+        <v>522.1237132438861</v>
       </c>
       <c r="S13">
-        <v>0.04829589464866739</v>
+        <v>0.006379198107146948</v>
       </c>
       <c r="T13">
-        <v>0.04829589464866739</v>
+        <v>0.006379198107146949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H14">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I14">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J14">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>16.9441031154377</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N14">
-        <v>16.9441031154377</v>
+        <v>0.120509</v>
       </c>
       <c r="O14">
-        <v>0.5396435491970424</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="P14">
-        <v>0.5396435491970424</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="Q14">
-        <v>733.9858480496923</v>
+        <v>1.837019981509445</v>
       </c>
       <c r="R14">
-        <v>733.9858480496923</v>
+        <v>16.533179833585</v>
       </c>
       <c r="S14">
-        <v>0.08635773758683594</v>
+        <v>0.0002019989263545684</v>
       </c>
       <c r="T14">
-        <v>0.08635773758683594</v>
+        <v>0.0002019989263545685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H15">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I15">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J15">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.87944821136552</v>
+        <v>0.6245546666666667</v>
       </c>
       <c r="N15">
-        <v>3.87944821136552</v>
+        <v>1.873664</v>
       </c>
       <c r="O15">
-        <v>0.1235544417691846</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="P15">
-        <v>0.1235544417691846</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="Q15">
-        <v>168.0502099157833</v>
+        <v>28.56183527068445</v>
       </c>
       <c r="R15">
-        <v>168.0502099157833</v>
+        <v>257.05651743616</v>
       </c>
       <c r="S15">
-        <v>0.01977209229289853</v>
+        <v>0.003140662658798979</v>
       </c>
       <c r="T15">
-        <v>0.01977209229289853</v>
+        <v>0.00314066265879898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H16">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I16">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J16">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.478716271291907</v>
+        <v>9.510748333333334</v>
       </c>
       <c r="N16">
-        <v>0.478716271291907</v>
+        <v>28.532245</v>
       </c>
       <c r="O16">
-        <v>0.01524637485609787</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="P16">
-        <v>0.01524637485609787</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="Q16">
-        <v>20.73706504059482</v>
+        <v>434.9409934720473</v>
       </c>
       <c r="R16">
-        <v>20.73706504059482</v>
+        <v>3914.468941248425</v>
       </c>
       <c r="S16">
-        <v>0.002439837260970727</v>
+        <v>0.04782616117041469</v>
       </c>
       <c r="T16">
-        <v>0.002439837260970727</v>
+        <v>0.04782616117041469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.9233520869604</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H17">
-        <v>44.9233520869604</v>
+        <v>137.194565</v>
       </c>
       <c r="I17">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J17">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.620372829702846</v>
+        <v>17.06910633333333</v>
       </c>
       <c r="N17">
-        <v>0.620372829702846</v>
+        <v>51.207319</v>
       </c>
       <c r="O17">
-        <v>0.01975791774669026</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="P17">
-        <v>0.01975791774669026</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="Q17">
-        <v>27.86922705392488</v>
+        <v>780.5962061134707</v>
       </c>
       <c r="R17">
-        <v>27.86922705392488</v>
+        <v>7025.365855021235</v>
       </c>
       <c r="S17">
-        <v>0.003278977929977546</v>
+        <v>0.08583444771341471</v>
       </c>
       <c r="T17">
-        <v>0.003278977929977546</v>
+        <v>0.08583444771341471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.9233520869604</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H18">
-        <v>44.9233520869604</v>
+        <v>137.194565</v>
       </c>
       <c r="I18">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J18">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.476054397053581</v>
+        <v>4.477804333333334</v>
       </c>
       <c r="N18">
-        <v>9.476054397053581</v>
+        <v>13.433413</v>
       </c>
       <c r="O18">
-        <v>0.3017977164309849</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="P18">
-        <v>0.3017977164309849</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="Q18">
-        <v>425.6961280740272</v>
+        <v>204.7768058889273</v>
       </c>
       <c r="R18">
-        <v>425.6961280740272</v>
+        <v>1842.991253000345</v>
       </c>
       <c r="S18">
-        <v>0.05008564486308744</v>
+        <v>0.02251728089418635</v>
       </c>
       <c r="T18">
-        <v>0.05008564486308744</v>
+        <v>0.02251728089418635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.9233520869604</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H19">
-        <v>44.9233520869604</v>
+        <v>137.194565</v>
       </c>
       <c r="I19">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J19">
-        <v>0.1659576667954711</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.9441031154377</v>
+        <v>0.650234</v>
       </c>
       <c r="N19">
-        <v>16.9441031154377</v>
+        <v>1.950702</v>
       </c>
       <c r="O19">
-        <v>0.5396435491970424</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="P19">
-        <v>0.5396435491970424</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="Q19">
-        <v>761.1859100525703</v>
+        <v>29.73619025940334</v>
       </c>
       <c r="R19">
-        <v>761.1859100525703</v>
+        <v>267.62571233463</v>
       </c>
       <c r="S19">
-        <v>0.08955798432596815</v>
+        <v>0.003269794867086353</v>
       </c>
       <c r="T19">
-        <v>0.08955798432596815</v>
+        <v>0.003269794867086354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H20">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I20">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J20">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.87944821136552</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N20">
-        <v>3.87944821136552</v>
+        <v>0.120509</v>
       </c>
       <c r="O20">
-        <v>0.1235544417691846</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="P20">
-        <v>0.1235544417691846</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="Q20">
-        <v>174.277817902302</v>
+        <v>1.815747625710333</v>
       </c>
       <c r="R20">
-        <v>174.277817902302</v>
+        <v>16.341728631393</v>
       </c>
       <c r="S20">
-        <v>0.02050480687823077</v>
+        <v>0.0001996598156885417</v>
       </c>
       <c r="T20">
-        <v>0.02050480687823077</v>
+        <v>0.0001996598156885418</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H21">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I21">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J21">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.478716271291907</v>
+        <v>0.6245546666666667</v>
       </c>
       <c r="N21">
-        <v>0.478716271291907</v>
+        <v>1.873664</v>
       </c>
       <c r="O21">
-        <v>0.01524637485609787</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="P21">
-        <v>0.01524637485609787</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="Q21">
-        <v>21.50553960500319</v>
+        <v>28.23109443592533</v>
       </c>
       <c r="R21">
-        <v>21.50553960500319</v>
+        <v>254.079849923328</v>
       </c>
       <c r="S21">
-        <v>0.002530252798207138</v>
+        <v>0.003104294358946269</v>
       </c>
       <c r="T21">
-        <v>0.002530252798207138</v>
+        <v>0.003104294358946269</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.361917978285</v>
+        <v>45.201959</v>
       </c>
       <c r="H22">
-        <v>34.361917978285</v>
+        <v>135.605877</v>
       </c>
       <c r="I22">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J22">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.620372829702846</v>
+        <v>9.510748333333334</v>
       </c>
       <c r="N22">
-        <v>0.620372829702846</v>
+        <v>28.532245</v>
       </c>
       <c r="O22">
-        <v>0.01975791774669026</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="P22">
-        <v>0.01975791774669026</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="Q22">
-        <v>21.31720029020576</v>
+        <v>429.9044562226516</v>
       </c>
       <c r="R22">
-        <v>21.31720029020576</v>
+        <v>3869.140106003865</v>
       </c>
       <c r="S22">
-        <v>0.002508093573791875</v>
+        <v>0.0472723429609433</v>
       </c>
       <c r="T22">
-        <v>0.002508093573791875</v>
+        <v>0.04727234296094331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.361917978285</v>
+        <v>45.201959</v>
       </c>
       <c r="H23">
-        <v>34.361917978285</v>
+        <v>135.605877</v>
       </c>
       <c r="I23">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J23">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.476054397053581</v>
+        <v>17.06910633333333</v>
       </c>
       <c r="N23">
-        <v>9.476054397053581</v>
+        <v>51.207319</v>
       </c>
       <c r="O23">
-        <v>0.3017977164309849</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="P23">
-        <v>0.3017977164309849</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="Q23">
-        <v>325.6154039493221</v>
+        <v>771.5570446459736</v>
       </c>
       <c r="R23">
-        <v>325.6154039493221</v>
+        <v>6944.013401813762</v>
       </c>
       <c r="S23">
-        <v>0.03831056100496286</v>
+        <v>0.08484050048912829</v>
       </c>
       <c r="T23">
-        <v>0.03831056100496286</v>
+        <v>0.08484050048912831</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.361917978285</v>
+        <v>45.201959</v>
       </c>
       <c r="H24">
-        <v>34.361917978285</v>
+        <v>135.605877</v>
       </c>
       <c r="I24">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J24">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.9441031154377</v>
+        <v>4.477804333333334</v>
       </c>
       <c r="N24">
-        <v>16.9441031154377</v>
+        <v>13.433413</v>
       </c>
       <c r="O24">
-        <v>0.5396435491970424</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="P24">
-        <v>0.5396435491970424</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="Q24">
-        <v>582.2318814682735</v>
+        <v>202.4055278853557</v>
       </c>
       <c r="R24">
-        <v>582.2318814682735</v>
+        <v>1821.649750968201</v>
       </c>
       <c r="S24">
-        <v>0.0685029938494439</v>
+        <v>0.02225653489488802</v>
       </c>
       <c r="T24">
-        <v>0.0685029938494439</v>
+        <v>0.02225653489488803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.361917978285</v>
+        <v>45.201959</v>
       </c>
       <c r="H25">
-        <v>34.361917978285</v>
+        <v>135.605877</v>
       </c>
       <c r="I25">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J25">
-        <v>0.1269411891448944</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.87944821136552</v>
+        <v>0.650234</v>
       </c>
       <c r="N25">
-        <v>3.87944821136552</v>
+        <v>1.950702</v>
       </c>
       <c r="O25">
-        <v>0.1235544417691846</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="P25">
-        <v>0.1235544417691846</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="Q25">
-        <v>133.3052812399465</v>
+        <v>29.391850608406</v>
       </c>
       <c r="R25">
-        <v>133.3052812399465</v>
+        <v>264.526655475654</v>
       </c>
       <c r="S25">
-        <v>0.01568414776231391</v>
+        <v>0.003231931239851544</v>
       </c>
       <c r="T25">
-        <v>0.01568414776231391</v>
+        <v>0.003231931239851545</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H26">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I26">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J26">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.478716271291907</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N26">
-        <v>0.478716271291907</v>
+        <v>0.120509</v>
       </c>
       <c r="O26">
-        <v>0.01524637485609787</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="P26">
-        <v>0.01524637485609787</v>
+        <v>0.001240853226449036</v>
       </c>
       <c r="Q26">
-        <v>16.44960924900294</v>
+        <v>1.390765768197333</v>
       </c>
       <c r="R26">
-        <v>16.44960924900294</v>
+        <v>12.516891913776</v>
       </c>
       <c r="S26">
-        <v>0.001935392954381883</v>
+        <v>0.000152928762242265</v>
       </c>
       <c r="T26">
-        <v>0.001935392954381883</v>
+        <v>0.000152928762242265</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.8104146217167</v>
+        <v>34.622288</v>
       </c>
       <c r="H27">
-        <v>36.8104146217167</v>
+        <v>103.866864</v>
       </c>
       <c r="I27">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J27">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.620372829702846</v>
+        <v>0.6245546666666667</v>
       </c>
       <c r="N27">
-        <v>0.620372829702846</v>
+        <v>1.873664</v>
       </c>
       <c r="O27">
-        <v>0.01975791774669026</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="P27">
-        <v>0.01975791774669026</v>
+        <v>0.01929268369732889</v>
       </c>
       <c r="Q27">
-        <v>22.83618108140941</v>
+        <v>21.62351154107733</v>
       </c>
       <c r="R27">
-        <v>22.83618108140941</v>
+        <v>194.611603869696</v>
       </c>
       <c r="S27">
-        <v>0.002686810568015621</v>
+        <v>0.00237772379140057</v>
       </c>
       <c r="T27">
-        <v>0.002686810568015621</v>
+        <v>0.00237772379140057</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.8104146217167</v>
+        <v>34.622288</v>
       </c>
       <c r="H28">
-        <v>36.8104146217167</v>
+        <v>103.866864</v>
       </c>
       <c r="I28">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J28">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.476054397053581</v>
+        <v>9.510748333333334</v>
       </c>
       <c r="N28">
-        <v>9.476054397053581</v>
+        <v>28.532245</v>
       </c>
       <c r="O28">
-        <v>0.3017977164309849</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="P28">
-        <v>0.3017977164309849</v>
+        <v>0.2937899100157199</v>
       </c>
       <c r="Q28">
-        <v>348.817491333484</v>
+        <v>329.2838678921867</v>
       </c>
       <c r="R28">
-        <v>348.817491333484</v>
+        <v>2963.55481102968</v>
       </c>
       <c r="S28">
-        <v>0.04104042259440953</v>
+        <v>0.03620809161011256</v>
       </c>
       <c r="T28">
-        <v>0.04104042259440953</v>
+        <v>0.03620809161011256</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.8104146217167</v>
+        <v>34.622288</v>
       </c>
       <c r="H29">
-        <v>36.8104146217167</v>
+        <v>103.866864</v>
       </c>
       <c r="I29">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J29">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.9441031154377</v>
+        <v>17.06910633333333</v>
       </c>
       <c r="N29">
-        <v>16.9441031154377</v>
+        <v>51.207319</v>
       </c>
       <c r="O29">
-        <v>0.5396435491970424</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="P29">
-        <v>0.5396435491970424</v>
+        <v>0.5272698885473702</v>
       </c>
       <c r="Q29">
-        <v>623.7194610723834</v>
+        <v>590.9715153752907</v>
       </c>
       <c r="R29">
-        <v>623.7194610723834</v>
+        <v>5318.743638377616</v>
       </c>
       <c r="S29">
-        <v>0.0733842507865969</v>
+        <v>0.06498329512662805</v>
       </c>
       <c r="T29">
-        <v>0.0733842507865969</v>
+        <v>0.06498329512662805</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.8104146217167</v>
+        <v>34.622288</v>
       </c>
       <c r="H30">
-        <v>36.8104146217167</v>
+        <v>103.866864</v>
       </c>
       <c r="I30">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J30">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.87944821136552</v>
+        <v>4.477804333333334</v>
       </c>
       <c r="N30">
-        <v>3.87944821136552</v>
+        <v>13.433413</v>
       </c>
       <c r="O30">
-        <v>0.1235544417691846</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="P30">
-        <v>0.1235544417691846</v>
+        <v>0.1383207383952438</v>
       </c>
       <c r="Q30">
-        <v>142.804097163842</v>
+        <v>155.0318312363147</v>
       </c>
       <c r="R30">
-        <v>142.804097163842</v>
+        <v>1395.286481126832</v>
       </c>
       <c r="S30">
-        <v>0.01680173913702649</v>
+        <v>0.01704731781675354</v>
       </c>
       <c r="T30">
-        <v>0.01680173913702649</v>
+        <v>0.01704731781675354</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.8104146217167</v>
+        <v>34.622288</v>
       </c>
       <c r="H31">
-        <v>36.8104146217167</v>
+        <v>103.866864</v>
       </c>
       <c r="I31">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J31">
-        <v>0.1359865246157178</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.478716271291907</v>
+        <v>0.650234</v>
       </c>
       <c r="N31">
-        <v>0.478716271291907</v>
+        <v>1.950702</v>
       </c>
       <c r="O31">
-        <v>0.01524637485609787</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="P31">
-        <v>0.01524637485609787</v>
+        <v>0.02008592611788819</v>
       </c>
       <c r="Q31">
-        <v>17.62174443241732</v>
+        <v>22.512588815392</v>
       </c>
       <c r="R31">
-        <v>17.62174443241732</v>
+        <v>202.613299338528</v>
       </c>
       <c r="S31">
-        <v>0.002073301529669213</v>
+        <v>0.0024754868297265</v>
       </c>
       <c r="T31">
-        <v>0.002073301529669213</v>
+        <v>0.002475486829726501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>38.401639</v>
+      </c>
+      <c r="H32">
+        <v>115.204917</v>
+      </c>
+      <c r="I32">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J32">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.04016966666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.120509</v>
+      </c>
+      <c r="O32">
+        <v>0.001240853226449036</v>
+      </c>
+      <c r="P32">
+        <v>0.001240853226449036</v>
+      </c>
+      <c r="Q32">
+        <v>1.542581038083666</v>
+      </c>
+      <c r="R32">
+        <v>13.883229342753</v>
+      </c>
+      <c r="S32">
+        <v>0.0001696223866066937</v>
+      </c>
+      <c r="T32">
+        <v>0.0001696223866066937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>38.401639</v>
+      </c>
+      <c r="H33">
+        <v>115.204917</v>
+      </c>
+      <c r="I33">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J33">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6245546666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.873664</v>
+      </c>
+      <c r="O33">
+        <v>0.01929268369732889</v>
+      </c>
+      <c r="P33">
+        <v>0.01929268369732889</v>
+      </c>
+      <c r="Q33">
+        <v>23.98392284509866</v>
+      </c>
+      <c r="R33">
+        <v>215.855305605888</v>
+      </c>
+      <c r="S33">
+        <v>0.002637274887178917</v>
+      </c>
+      <c r="T33">
+        <v>0.002637274887178917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>38.401639</v>
+      </c>
+      <c r="H34">
+        <v>115.204917</v>
+      </c>
+      <c r="I34">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J34">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>9.510748333333334</v>
+      </c>
+      <c r="N34">
+        <v>28.532245</v>
+      </c>
+      <c r="O34">
+        <v>0.2937899100157199</v>
+      </c>
+      <c r="P34">
+        <v>0.2937899100157199</v>
+      </c>
+      <c r="Q34">
+        <v>365.2283241165183</v>
+      </c>
+      <c r="R34">
+        <v>3287.054917048665</v>
+      </c>
+      <c r="S34">
+        <v>0.04016054810965905</v>
+      </c>
+      <c r="T34">
+        <v>0.04016054810965905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>38.401639</v>
+      </c>
+      <c r="H35">
+        <v>115.204917</v>
+      </c>
+      <c r="I35">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J35">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.06910633333333</v>
+      </c>
+      <c r="N35">
+        <v>51.207319</v>
+      </c>
+      <c r="O35">
+        <v>0.5272698885473702</v>
+      </c>
+      <c r="P35">
+        <v>0.5272698885473702</v>
+      </c>
+      <c r="Q35">
+        <v>655.4816594652802</v>
+      </c>
+      <c r="R35">
+        <v>5899.334935187522</v>
+      </c>
+      <c r="S35">
+        <v>0.07207683791675552</v>
+      </c>
+      <c r="T35">
+        <v>0.07207683791675552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>38.401639</v>
+      </c>
+      <c r="H36">
+        <v>115.204917</v>
+      </c>
+      <c r="I36">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J36">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.477804333333334</v>
+      </c>
+      <c r="N36">
+        <v>13.433413</v>
+      </c>
+      <c r="O36">
+        <v>0.1383207383952438</v>
+      </c>
+      <c r="P36">
+        <v>0.1383207383952438</v>
+      </c>
+      <c r="Q36">
+        <v>171.9550255213024</v>
+      </c>
+      <c r="R36">
+        <v>1547.595229691721</v>
+      </c>
+      <c r="S36">
+        <v>0.01890819418743318</v>
+      </c>
+      <c r="T36">
+        <v>0.01890819418743318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>38.401639</v>
+      </c>
+      <c r="H37">
+        <v>115.204917</v>
+      </c>
+      <c r="I37">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="J37">
+        <v>0.1366981871756936</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.650234</v>
+      </c>
+      <c r="N37">
+        <v>1.950702</v>
+      </c>
+      <c r="O37">
+        <v>0.02008592611788819</v>
+      </c>
+      <c r="P37">
+        <v>0.02008592611788819</v>
+      </c>
+      <c r="Q37">
+        <v>24.970051333526</v>
+      </c>
+      <c r="R37">
+        <v>224.730462001734</v>
+      </c>
+      <c r="S37">
+        <v>0.002745709688060232</v>
+      </c>
+      <c r="T37">
+        <v>0.002745709688060233</v>
       </c>
     </row>
   </sheetData>
